--- a/Documentation/Website User Experience Template.xlsx
+++ b/Documentation/Website User Experience Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Utility</t>
   </si>
@@ -40,6 +40,33 @@
   </si>
   <si>
     <t>Content</t>
+  </si>
+  <si>
+    <t>Parents</t>
+  </si>
+  <si>
+    <t>Staff/Facility</t>
+  </si>
+  <si>
+    <t>Future Students</t>
+  </si>
+  <si>
+    <t>Current Students</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>Liked</t>
+  </si>
+  <si>
+    <t>Disliked</t>
+  </si>
+  <si>
+    <t>Not Represented</t>
+  </si>
+  <si>
+    <t>Relevant Pages to Enhance</t>
   </si>
 </sst>
 </file>
@@ -117,8 +144,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -131,9 +180,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,19 +534,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:G5"/>
+  <dimension ref="C2:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H22" sqref="H22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="4" max="7" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" customWidth="1"/>
+    <col min="4" max="11" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7">
-      <c r="C2" s="1"/>
+    <row r="2" spans="3:11">
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
@@ -488,8 +563,20 @@
       <c r="G2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="3:7" ht="60" customHeight="1">
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" ht="60" customHeight="1">
       <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
@@ -497,8 +584,12 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="3:7" ht="60" customHeight="1">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="3:11" ht="60" customHeight="1">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
@@ -506,8 +597,12 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="3:7" ht="60" customHeight="1">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="3:11" ht="60" customHeight="1">
       <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
@@ -515,6 +610,282 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" ht="60" customHeight="1">
+      <c r="C8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="3:11" ht="60" customHeight="1">
+      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="3:11" ht="60" customHeight="1">
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" ht="60" customHeight="1">
+      <c r="C13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="3:11" ht="60" customHeight="1">
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="3:11" ht="60" customHeight="1">
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="60" customHeight="1">
+      <c r="C18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="3:11" ht="60" customHeight="1">
+      <c r="C19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="3:11" ht="60" customHeight="1">
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" ht="60" customHeight="1">
+      <c r="C23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="3:11" ht="60" customHeight="1">
+      <c r="C24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="3:11" ht="60" customHeight="1">
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documentation/Website User Experience Template.xlsx
+++ b/Documentation/Website User Experience Template.xlsx
@@ -536,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H22" sqref="H22:K22"/>
     </sheetView>
   </sheetViews>
